--- a/output/clean_data/stock_assessments.xlsx
+++ b/output/clean_data/stock_assessments.xlsx
@@ -13033,7 +13033,7 @@
         <v>2118</v>
       </c>
       <c r="F155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G155" t="s">
         <v>2875</v>
@@ -13163,7 +13163,7 @@
         <v>2123</v>
       </c>
       <c r="F160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G160" t="s">
         <v>2875</v>
@@ -13189,7 +13189,7 @@
         <v>2124</v>
       </c>
       <c r="F161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G161" t="s">
         <v>2875</v>
@@ -13215,7 +13215,7 @@
         <v>2125</v>
       </c>
       <c r="F162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G162" t="s">
         <v>2875</v>
@@ -13319,7 +13319,7 @@
         <v>2129</v>
       </c>
       <c r="F166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G166" t="s">
         <v>2874</v>
@@ -13345,7 +13345,7 @@
         <v>2130</v>
       </c>
       <c r="F167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G167" t="s">
         <v>2874</v>
@@ -13371,7 +13371,7 @@
         <v>2131</v>
       </c>
       <c r="F168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G168" t="s">
         <v>2875</v>
@@ -13423,7 +13423,7 @@
         <v>2132</v>
       </c>
       <c r="F170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G170" t="s">
         <v>2874</v>
@@ -13449,7 +13449,7 @@
         <v>2133</v>
       </c>
       <c r="F171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G171" t="s">
         <v>2874</v>
@@ -13475,7 +13475,7 @@
         <v>2134</v>
       </c>
       <c r="F172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G172" t="s">
         <v>2874</v>
@@ -13579,7 +13579,7 @@
         <v>2138</v>
       </c>
       <c r="F176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G176" t="s">
         <v>2874</v>
@@ -13761,7 +13761,7 @@
         <v>2145</v>
       </c>
       <c r="F183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G183" t="s">
         <v>2873</v>
@@ -13865,7 +13865,7 @@
         <v>2149</v>
       </c>
       <c r="F187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G187" t="s">
         <v>2874</v>
@@ -13995,7 +13995,7 @@
         <v>2152</v>
       </c>
       <c r="F192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G192" t="s">
         <v>2874</v>
@@ -14125,7 +14125,7 @@
         <v>2156</v>
       </c>
       <c r="F197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G197" t="s">
         <v>2873</v>
@@ -14151,7 +14151,7 @@
         <v>2157</v>
       </c>
       <c r="F198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G198" t="s">
         <v>2873</v>
@@ -14177,7 +14177,7 @@
         <v>2158</v>
       </c>
       <c r="F199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G199" t="s">
         <v>2873</v>
@@ -14281,7 +14281,7 @@
         <v>2162</v>
       </c>
       <c r="F203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G203" t="s">
         <v>2873</v>
@@ -14333,7 +14333,7 @@
         <v>2164</v>
       </c>
       <c r="F205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G205" t="s">
         <v>2874</v>
@@ -14437,7 +14437,7 @@
         <v>2167</v>
       </c>
       <c r="F209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G209" t="s">
         <v>2874</v>
@@ -14463,7 +14463,7 @@
         <v>2168</v>
       </c>
       <c r="F210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G210" t="s">
         <v>2874</v>
@@ -14593,7 +14593,7 @@
         <v>2170</v>
       </c>
       <c r="F215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G215" t="s">
         <v>2874</v>
@@ -14697,7 +14697,7 @@
         <v>2164</v>
       </c>
       <c r="F219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G219" t="s">
         <v>2874</v>
@@ -14853,7 +14853,7 @@
         <v>2176</v>
       </c>
       <c r="F225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G225" t="s">
         <v>2874</v>
@@ -14931,7 +14931,7 @@
         <v>2164</v>
       </c>
       <c r="F228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G228" t="s">
         <v>2875</v>
@@ -15009,7 +15009,7 @@
         <v>2179</v>
       </c>
       <c r="F231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G231" t="s">
         <v>2874</v>
@@ -15113,7 +15113,7 @@
         <v>2161</v>
       </c>
       <c r="F235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G235" t="s">
         <v>2874</v>
@@ -15139,7 +15139,7 @@
         <v>2128</v>
       </c>
       <c r="F236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G236" t="s">
         <v>2874</v>
@@ -15165,7 +15165,7 @@
         <v>2182</v>
       </c>
       <c r="F237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G237" t="s">
         <v>2873</v>
@@ -15269,7 +15269,7 @@
         <v>2132</v>
       </c>
       <c r="F241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G241" t="s">
         <v>2874</v>
@@ -15295,7 +15295,7 @@
         <v>2185</v>
       </c>
       <c r="F242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G242" t="s">
         <v>2874</v>
@@ -15373,7 +15373,7 @@
         <v>2188</v>
       </c>
       <c r="F245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G245" t="s">
         <v>2875</v>
@@ -15607,7 +15607,7 @@
         <v>2197</v>
       </c>
       <c r="F254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G254" t="s">
         <v>2874</v>
@@ -15633,7 +15633,7 @@
         <v>2198</v>
       </c>
       <c r="F255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G255" t="s">
         <v>2874</v>
@@ -15659,7 +15659,7 @@
         <v>2199</v>
       </c>
       <c r="F256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G256" t="s">
         <v>2874</v>
@@ -15685,7 +15685,7 @@
         <v>2200</v>
       </c>
       <c r="F257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G257" t="s">
         <v>2874</v>
@@ -15711,7 +15711,7 @@
         <v>2201</v>
       </c>
       <c r="F258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G258" t="s">
         <v>2874</v>
@@ -15971,7 +15971,7 @@
         <v>2211</v>
       </c>
       <c r="F268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G268" t="s">
         <v>2874</v>
@@ -15997,7 +15997,7 @@
         <v>2212</v>
       </c>
       <c r="F269">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G269" t="s">
         <v>2873</v>
@@ -16049,7 +16049,7 @@
         <v>2214</v>
       </c>
       <c r="F271">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G271" t="s">
         <v>2875</v>
@@ -16101,7 +16101,7 @@
         <v>2167</v>
       </c>
       <c r="F273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G273" t="s">
         <v>2874</v>
@@ -16127,7 +16127,7 @@
         <v>2215</v>
       </c>
       <c r="F274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G274" t="s">
         <v>2874</v>
@@ -16153,7 +16153,7 @@
         <v>2216</v>
       </c>
       <c r="F275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G275" t="s">
         <v>2874</v>
@@ -16179,7 +16179,7 @@
         <v>2217</v>
       </c>
       <c r="F276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G276" t="s">
         <v>2874</v>
@@ -16205,7 +16205,7 @@
         <v>2218</v>
       </c>
       <c r="F277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G277" t="s">
         <v>2874</v>
@@ -16283,7 +16283,7 @@
         <v>2221</v>
       </c>
       <c r="F280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G280" t="s">
         <v>2874</v>
@@ -16335,7 +16335,7 @@
         <v>2222</v>
       </c>
       <c r="F282">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G282" t="s">
         <v>2874</v>
@@ -16361,7 +16361,7 @@
         <v>2223</v>
       </c>
       <c r="F283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G283" t="s">
         <v>2874</v>
@@ -16387,7 +16387,7 @@
         <v>2224</v>
       </c>
       <c r="F284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G284" t="s">
         <v>2874</v>
@@ -16439,7 +16439,7 @@
         <v>2179</v>
       </c>
       <c r="F286">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G286" t="s">
         <v>2874</v>
@@ -16491,7 +16491,7 @@
         <v>2227</v>
       </c>
       <c r="F288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G288" t="s">
         <v>2875</v>
@@ -16517,7 +16517,7 @@
         <v>2228</v>
       </c>
       <c r="F289">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G289" t="s">
         <v>2874</v>
@@ -16829,7 +16829,7 @@
         <v>2236</v>
       </c>
       <c r="F301">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G301" t="s">
         <v>2873</v>
@@ -16907,7 +16907,7 @@
         <v>2239</v>
       </c>
       <c r="F304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G304" t="s">
         <v>2874</v>
@@ -17011,7 +17011,7 @@
         <v>2242</v>
       </c>
       <c r="F308">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G308" t="s">
         <v>2874</v>
@@ -17063,7 +17063,7 @@
         <v>2244</v>
       </c>
       <c r="F310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G310" t="s">
         <v>2873</v>
@@ -17115,7 +17115,7 @@
         <v>2245</v>
       </c>
       <c r="F312">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G312" t="s">
         <v>2874</v>
@@ -17167,7 +17167,7 @@
         <v>2247</v>
       </c>
       <c r="F314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G314" t="s">
         <v>2873</v>
@@ -17375,7 +17375,7 @@
         <v>2163</v>
       </c>
       <c r="F322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G322" t="s">
         <v>2874</v>
@@ -17479,7 +17479,7 @@
         <v>2254</v>
       </c>
       <c r="F326">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G326" t="s">
         <v>2875</v>
@@ -17557,7 +17557,7 @@
         <v>2255</v>
       </c>
       <c r="F329">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G329" t="s">
         <v>2873</v>
@@ -17609,7 +17609,7 @@
         <v>2118</v>
       </c>
       <c r="F331">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G331" t="s">
         <v>2875</v>
